--- a/docs/画面項目定義書/mo_instance_type_add.xlsx
+++ b/docs/画面項目定義書/mo_instance_type_add.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2225A400-A083-479E-816D-E5BDD2F14628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA17E1-74FF-451C-A134-ABF89CC24322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -670,16 +670,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1132,20 +1132,20 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1165,7 +1165,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1174,7 +1174,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1183,11 +1183,11 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:7" ht="13.5">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="10" t="s">
         <v>2</v>
       </c>
@@ -1196,18 +1196,18 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:7" ht="13.5">
+      <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1216,7 +1216,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1310,7 +1310,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="26">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1323,11 +1323,11 @@
       <c r="E13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="25">
         <v>6</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="25">
         <v>8</v>
       </c>
@@ -1377,7 +1377,7 @@
       <c r="E16" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="21">
@@ -1398,7 +1398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="25">
         <v>10</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="25">
         <v>12</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1456,7 +1456,7 @@
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="25">
         <v>14</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1478,21 +1478,21 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="25">
         <v>16</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1501,7 +1501,7 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -1510,7 +1510,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1519,7 +1519,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>

--- a/docs/画面項目定義書/mo_instance_type_add.xlsx
+++ b/docs/画面項目定義書/mo_instance_type_add.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDA17E1-74FF-451C-A134-ABF89CC24322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B87CDA5-2AC3-40AC-B078-F587D0A69E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="10990" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>日本工学院</t>
   </si>
@@ -144,32 +144,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力覧「メモリ」</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -180,11 +154,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>編集ボタン押下後、入力が可能になり、
-表示が更新される</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力覧「vCPU」</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -212,13 +181,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>例：standard.xlarge</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>入力覧タイトル「メモリ数」</t>
     <rPh sb="0" eb="3">
       <t>ニュウリョクラン</t>
@@ -249,27 +211,6 @@
     <t>vCPU数</t>
     <rPh sb="4" eb="5">
       <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>例：16</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>例：32</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>例：500</t>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1131,21 +1072,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="40.875" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="7" max="7" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:7" ht="13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1097,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13.5">
+    <row r="2" spans="1:7" ht="13">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1165,7 +1106,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14.25">
+    <row r="3" spans="1:7" ht="14">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1174,7 +1115,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13.5">
+    <row r="4" spans="1:7" ht="13">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1183,7 +1124,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13.5">
+    <row r="5" spans="1:7" ht="13">
       <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
@@ -1196,7 +1137,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13.5">
+    <row r="6" spans="1:7" ht="13">
       <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
@@ -1207,7 +1148,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5">
+    <row r="7" spans="1:7" ht="13">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1216,7 +1157,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13.5">
+    <row r="8" spans="1:7" ht="13">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1239,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.5">
+    <row r="9" spans="1:7" ht="13">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1274,7 +1215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5">
+    <row r="11" spans="1:7" ht="13">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1310,7 +1251,7 @@
       <c r="F12" s="30"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" ht="27">
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1320,26 +1261,22 @@
       <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="13.5">
+      <c r="E13" s="24"/>
+      <c r="G13" s="34"/>
+    </row>
+    <row r="14" spans="1:7" ht="13">
       <c r="A14" s="25">
         <v>6</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="31"/>
@@ -1349,33 +1286,29 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="28"/>
-      <c r="E15" s="29" t="s">
-        <v>36</v>
-      </c>
+      <c r="E15" s="29"/>
       <c r="F15" s="30"/>
-      <c r="G15" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.5">
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="13">
       <c r="A16" s="25">
         <v>8</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G16" s="35"/>
     </row>
@@ -1384,33 +1317,29 @@
         <v>9</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="29" t="s">
-        <v>37</v>
-      </c>
+      <c r="E17" s="29"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="13.5">
+      <c r="G17" s="31"/>
+    </row>
+    <row r="18" spans="1:7" ht="13">
       <c r="A18" s="25">
         <v>10</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="31"/>
@@ -1420,21 +1349,17 @@
         <v>11</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="29" t="s">
-        <v>38</v>
-      </c>
+      <c r="E19" s="29"/>
       <c r="F19" s="30"/>
-      <c r="G19" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="13.5">
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" ht="13">
       <c r="A20" s="25">
         <v>12</v>
       </c>
@@ -1445,7 +1370,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="13.5">
+    <row r="21" spans="1:7" ht="13">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1456,7 +1381,7 @@
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" ht="13.5">
+    <row r="22" spans="1:7" ht="13">
       <c r="A22" s="25">
         <v>14</v>
       </c>
@@ -1467,7 +1392,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="13.5">
+    <row r="23" spans="1:7" ht="13">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1478,21 +1403,21 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" ht="13.5">
+    <row r="24" spans="1:7" ht="13">
       <c r="A24" s="25">
         <v>16</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="13.5">
+    <row r="25" spans="1:7" ht="13">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" ht="13.5">
+    <row r="26" spans="1:7" ht="13">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1501,7 +1426,7 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" ht="13.5">
+    <row r="27" spans="1:7" ht="13">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -1510,7 +1435,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" ht="13.5">
+    <row r="28" spans="1:7" ht="13">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1519,7 +1444,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" ht="13.5">
+    <row r="29" spans="1:7" ht="13">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>

--- a/docs/画面項目定義書/mo_instance_type_add.xlsx
+++ b/docs/画面項目定義書/mo_instance_type_add.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B87CDA5-2AC3-40AC-B078-F587D0A69E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF09C23-5BD6-4175-AF7E-F30662EC2C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="10990" windowHeight="10170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>日本工学院</t>
   </si>
@@ -219,6 +219,10 @@
     <rPh sb="5" eb="6">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1072,21 +1076,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1099,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1106,7 +1108,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1115,7 +1117,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1124,7 +1126,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1139,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="37" t="s">
         <v>15</v>
       </c>
@@ -1148,7 +1150,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1157,7 +1159,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1180,7 +1182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13">
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13">
+    <row r="11" spans="1:7" ht="13.5">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1261,10 +1263,13 @@
       <c r="C13" s="23" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="24"/>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="13">
+    <row r="14" spans="1:7" ht="13.5">
       <c r="A14" s="25">
         <v>6</v>
       </c>
@@ -1291,12 +1296,14 @@
       <c r="C15" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="29"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" ht="13">
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="25">
         <v>8</v>
       </c>
@@ -1322,12 +1329,14 @@
       <c r="C17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="29"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="25">
         <v>10</v>
       </c>
@@ -1354,12 +1363,14 @@
       <c r="C19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="29"/>
       <c r="F19" s="30"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="25">
         <v>12</v>
       </c>
@@ -1370,7 +1381,7 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1381,7 +1392,7 @@
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="25">
         <v>14</v>
       </c>
@@ -1392,7 +1403,7 @@
       <c r="F22" s="30"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1403,21 +1414,21 @@
       <c r="F23" s="30"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="25">
         <v>16</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="25"/>
       <c r="B26" s="26"/>
       <c r="C26" s="27"/>
@@ -1426,7 +1437,7 @@
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="25"/>
       <c r="B27" s="26"/>
       <c r="C27" s="27"/>
@@ -1435,7 +1446,7 @@
       <c r="F27" s="30"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="25"/>
       <c r="B28" s="26"/>
       <c r="C28" s="27"/>
@@ -1444,7 +1455,7 @@
       <c r="F28" s="30"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="32"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
